--- a/CR - Cost Report/BOM/FR/FRA0400.xlsx
+++ b/CR - Cost Report/BOM/FR/FRA0400.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\FR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dossiers\ECL\Cours\EPSA\Github 2019\CR - Cost Report\BOM\FR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717AFA48-B6BE-4690-9BFA-9B48A7404353}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-18276" yWindow="4308" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>System</t>
   </si>
@@ -57,16 +58,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Name of the part</t>
-  </si>
-  <si>
-    <t>m or b</t>
-  </si>
-  <si>
     <t>Short description of the part</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number </t>
   </si>
   <si>
     <t>FR</t>
@@ -110,11 +102,80 @@
       <t>(25 caractères max!)</t>
     </r>
   </si>
+  <si>
+    <t>Upper rail</t>
+  </si>
+  <si>
+    <t>Lower rail</t>
+  </si>
+  <si>
+    <t>Accelerator pedal</t>
+  </si>
+  <si>
+    <t>Brake pedal</t>
+  </si>
+  <si>
+    <t>Foot top support</t>
+  </si>
+  <si>
+    <t>FR_04007</t>
+  </si>
+  <si>
+    <t>FR_04008</t>
+  </si>
+  <si>
+    <t>FR_04009</t>
+  </si>
+  <si>
+    <t>FR_04010</t>
+  </si>
+  <si>
+    <t>FR_04011</t>
+  </si>
+  <si>
+    <t>FR_04012</t>
+  </si>
+  <si>
+    <t>FR_04013</t>
+  </si>
+  <si>
+    <t>Heel support</t>
+  </si>
+  <si>
+    <t>Side support brake pedal</t>
+  </si>
+  <si>
+    <t>Left side support accelerator pedal</t>
+  </si>
+  <si>
+    <t>Right side support brake pedal</t>
+  </si>
+  <si>
+    <t>Brake over-travel switch support</t>
+  </si>
+  <si>
+    <t>Cable support axis</t>
+  </si>
+  <si>
+    <t>Outside spacer master cylinder</t>
+  </si>
+  <si>
+    <t>Inside spacer master cylinder</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Axis to pull the accelerator cable</t>
+  </si>
+  <si>
+    <t>To support the upper part of the master cylinder</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -526,12 +587,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,7 +607,7 @@
     <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -571,131 +632,250 @@
     </row>
     <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/FR/FRA0400.xlsx
+++ b/CR - Cost Report/BOM/FR/FRA0400.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dossiers\ECL\Cours\EPSA\Github 2019\CR - Cost Report\BOM\FR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\FR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717AFA48-B6BE-4690-9BFA-9B48A7404353}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18276" yWindow="4308" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18276" yWindow="4308" windowWidth="23040" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -175,7 +174,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -587,12 +586,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,6 +759,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
         <v>30</v>
       </c>
@@ -777,6 +778,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
@@ -794,6 +797,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
         <v>32</v>
       </c>
@@ -811,6 +816,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
         <v>33</v>
       </c>
@@ -828,6 +835,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
         <v>34</v>
       </c>
@@ -845,6 +854,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
         <v>36</v>
       </c>
@@ -862,6 +873,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
         <v>35</v>
       </c>

--- a/CR - Cost Report/BOM/FR/FRA0400.xlsx
+++ b/CR - Cost Report/BOM/FR/FRA0400.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\FR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delal\Desktop\Nouveau dossier\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15A8EB1-1A11-4EA6-A654-5D40C4D164F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18276" yWindow="4308" windowWidth="23040" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>System</t>
   </si>
@@ -102,9 +103,6 @@
     </r>
   </si>
   <si>
-    <t>Upper rail</t>
-  </si>
-  <si>
     <t>Lower rail</t>
   </si>
   <si>
@@ -147,9 +145,6 @@
     <t>Left side support accelerator pedal</t>
   </si>
   <si>
-    <t>Right side support brake pedal</t>
-  </si>
-  <si>
     <t>Brake over-travel switch support</t>
   </si>
   <si>
@@ -169,12 +164,24 @@
   </si>
   <si>
     <t>To support the upper part of the master cylinder</t>
+  </si>
+  <si>
+    <t>Upper rail brake pedal</t>
+  </si>
+  <si>
+    <t>Upper rail accelerator pedal</t>
+  </si>
+  <si>
+    <t>FR_04014</t>
+  </si>
+  <si>
+    <t>Right side support accelerator pedal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -586,12 +593,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,16 +655,16 @@
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>10</v>
@@ -667,10 +674,10 @@
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>6</v>
@@ -686,10 +693,10 @@
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>6</v>
@@ -705,10 +712,10 @@
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>6</v>
@@ -724,10 +731,10 @@
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>6</v>
@@ -743,10 +750,10 @@
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>6</v>
@@ -759,13 +766,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>6</v>
@@ -774,17 +779,15 @@
         <v>2</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>6</v>
@@ -793,17 +796,15 @@
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>6</v>
@@ -812,17 +813,15 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>6</v>
@@ -831,64 +830,75 @@
         <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="F14" s="5">
         <v>2</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="F15" s="5">
         <v>2</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/FR/FRA0400.xlsx
+++ b/CR - Cost Report/BOM/FR/FRA0400.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delal\Desktop\Nouveau dossier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\FR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15A8EB1-1A11-4EA6-A654-5D40C4D164F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>System</t>
   </si>
@@ -58,9 +57,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Short description of the part</t>
-  </si>
-  <si>
     <t>FR</t>
   </si>
   <si>
@@ -112,9 +108,6 @@
     <t>Brake pedal</t>
   </si>
   <si>
-    <t>Foot top support</t>
-  </si>
-  <si>
     <t>FR_04007</t>
   </si>
   <si>
@@ -136,9 +129,6 @@
     <t>FR_04013</t>
   </si>
   <si>
-    <t>Heel support</t>
-  </si>
-  <si>
     <t>Side support brake pedal</t>
   </si>
   <si>
@@ -151,37 +141,67 @@
     <t>Cable support axis</t>
   </si>
   <si>
-    <t>Outside spacer master cylinder</t>
-  </si>
-  <si>
-    <t>Inside spacer master cylinder</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
     <t>Axis to pull the accelerator cable</t>
   </si>
   <si>
-    <t>To support the upper part of the master cylinder</t>
-  </si>
-  <si>
     <t>Upper rail brake pedal</t>
   </si>
   <si>
-    <t>Upper rail accelerator pedal</t>
-  </si>
-  <si>
     <t>FR_04014</t>
   </si>
   <si>
     <t>Right side support accelerator pedal</t>
+  </si>
+  <si>
+    <t>Inside spacer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outside spacer </t>
+  </si>
+  <si>
+    <t>Upper rail accel. pedal</t>
+  </si>
+  <si>
+    <t>Left side support</t>
+  </si>
+  <si>
+    <t>Right side support</t>
+  </si>
+  <si>
+    <t>Brake support</t>
+  </si>
+  <si>
+    <t>Top foot support</t>
+  </si>
+  <si>
+    <t>Below foot support</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>FR_04015</t>
+  </si>
+  <si>
+    <t>FR_04016</t>
+  </si>
+  <si>
+    <t>Accel. cable sheath</t>
+  </si>
+  <si>
+    <t>Accel. cable</t>
+  </si>
+  <si>
+    <t>Upper part of the master cylinder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -259,7 +279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -268,41 +288,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -593,12 +599,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="L19" sqref="I2:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,7 +619,7 @@
     <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -632,273 +638,307 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="D14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="4">
         <v>2</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="G14" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="4">
         <v>2</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="5">
-        <v>2</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="5">
-        <v>2</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="5" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="5">
-        <v>2</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="5" t="s">
+      <c r="D16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="5">
-        <v>2</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>40</v>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/FR/FRA0400.xlsx
+++ b/CR - Cost Report/BOM/FR/FRA0400.xlsx
@@ -63,9 +63,6 @@
     <t>Pedals</t>
   </si>
   <si>
-    <t>FR_A0004</t>
-  </si>
-  <si>
     <t>FR_04001</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>Upper part of the master cylinder</t>
+  </si>
+  <si>
+    <t>FR_A0400</t>
   </si>
 </sst>
 </file>
@@ -604,7 +604,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L19" sqref="I2:L19"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -654,291 +654,291 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4">
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4">
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4">
         <v>2</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4">
         <v>2</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4">
         <v>2</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="4">
         <v>2</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4">
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4">
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/FR/FRA0400.xlsx
+++ b/CR - Cost Report/BOM/FR/FRA0400.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\FR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dossiers\ECL\Cours\EPSA\Github 2019\CR - Cost Report\BOM\FR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AFA1E4-FA50-46D5-A6FD-A1B81AEFB16D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>System</t>
   </si>
@@ -111,9 +112,6 @@
     <t>FR_04008</t>
   </si>
   <si>
-    <t>FR_04009</t>
-  </si>
-  <si>
     <t>FR_04010</t>
   </si>
   <si>
@@ -129,9 +127,6 @@
     <t>Side support brake pedal</t>
   </si>
   <si>
-    <t>Left side support accelerator pedal</t>
-  </si>
-  <si>
     <t>Brake over-travel switch support</t>
   </si>
   <si>
@@ -150,9 +145,6 @@
     <t>FR_04014</t>
   </si>
   <si>
-    <t>Right side support accelerator pedal</t>
-  </si>
-  <si>
     <t>Inside spacer</t>
   </si>
   <si>
@@ -162,12 +154,6 @@
     <t>Upper rail accel. pedal</t>
   </si>
   <si>
-    <t>Left side support</t>
-  </si>
-  <si>
-    <t>Right side support</t>
-  </si>
-  <si>
     <t>Brake support</t>
   </si>
   <si>
@@ -196,12 +182,24 @@
   </si>
   <si>
     <t>FR_A0400</t>
+  </si>
+  <si>
+    <t>Side support accelerator</t>
+  </si>
+  <si>
+    <t>Side support accelerator pedal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coussinet </t>
+  </si>
+  <si>
+    <t>Vis épaulée</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -253,7 +251,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +273,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD5A6BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -320,6 +324,8 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,12 +605,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,7 +625,7 @@
     <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,7 +648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -654,17 +660,17 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4">
@@ -674,14 +680,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4">
@@ -690,15 +696,16 @@
       <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4">
@@ -707,15 +714,16 @@
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4">
@@ -725,14 +733,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4">
@@ -742,14 +750,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4">
@@ -759,14 +767,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4">
@@ -776,17 +784,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -794,152 +802,177 @@
       <c r="G10" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F14" s="4">
         <v>2</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4">
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4">
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>44</v>
-      </c>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4">
+        <v>4</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CR - Cost Report/BOM/FR/FRA0400.xlsx
+++ b/CR - Cost Report/BOM/FR/FRA0400.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dossiers\ECL\Cours\EPSA\Github 2019\CR - Cost Report\BOM\FR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AFA1E4-FA50-46D5-A6FD-A1B81AEFB16D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE2F7C2-E50B-47F0-9A0C-DFBE99221D79}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>System</t>
   </si>
@@ -130,15 +130,9 @@
     <t>Brake over-travel switch support</t>
   </si>
   <si>
-    <t>Cable support axis</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
-    <t>Axis to pull the accelerator cable</t>
-  </si>
-  <si>
     <t>Upper rail brake pedal</t>
   </si>
   <si>
@@ -194,13 +188,43 @@
   </si>
   <si>
     <t>Vis épaulée</t>
+  </si>
+  <si>
+    <t>Rod mounted between the pedal and the cable support</t>
+  </si>
+  <si>
+    <t>FR_04009</t>
+  </si>
+  <si>
+    <t>Rod accelerator</t>
+  </si>
+  <si>
+    <t>Cable sheath support</t>
+  </si>
+  <si>
+    <t>FR_04017</t>
+  </si>
+  <si>
+    <t>FR_04018</t>
+  </si>
+  <si>
+    <t>FR_04019</t>
+  </si>
+  <si>
+    <t>Throttle Pedal Abutment</t>
+  </si>
+  <si>
+    <t>Throttle Pedal Axis Cable</t>
+  </si>
+  <si>
+    <t>FR_04020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,8 +274,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,12 +303,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD5A6BD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -324,7 +348,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -606,11 +629,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,17 +683,17 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4">
@@ -687,7 +710,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4">
@@ -696,7 +719,7 @@
       <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -705,7 +728,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4">
@@ -714,7 +737,7 @@
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
@@ -723,7 +746,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4">
@@ -737,10 +760,10 @@
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4">
@@ -754,10 +777,10 @@
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4">
@@ -774,7 +797,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4">
@@ -788,13 +811,13 @@
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -802,26 +825,36 @@
       <c r="G10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>25</v>
@@ -837,14 +870,12 @@
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E13" s="4"/>
       <c r="F13" s="4">
         <v>1</v>
       </c>
@@ -857,13 +888,13 @@
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F14" s="4">
         <v>2</v>
@@ -876,13 +907,13 @@
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
@@ -895,17 +926,17 @@
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -913,68 +944,112 @@
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4">
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4">
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4">
-        <v>4</v>
-      </c>
-      <c r="G19" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4">
+        <v>4</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4">
         <v>2</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/CR - Cost Report/BOM/FR/FRA0400.xlsx
+++ b/CR - Cost Report/BOM/FR/FRA0400.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dossiers\ECL\Cours\EPSA\Github 2019\CR - Cost Report\BOM\FR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE2F7C2-E50B-47F0-9A0C-DFBE99221D79}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF3502E-B273-4EEA-8F43-045C9BA87A27}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>System</t>
   </si>
@@ -181,15 +181,6 @@
     <t>Side support accelerator</t>
   </si>
   <si>
-    <t>Side support accelerator pedal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coussinet </t>
-  </si>
-  <si>
-    <t>Vis épaulée</t>
-  </si>
-  <si>
     <t>Rod mounted between the pedal and the cable support</t>
   </si>
   <si>
@@ -208,16 +199,13 @@
     <t>FR_04018</t>
   </si>
   <si>
-    <t>FR_04019</t>
-  </si>
-  <si>
-    <t>Throttle Pedal Abutment</t>
-  </si>
-  <si>
-    <t>Throttle Pedal Axis Cable</t>
-  </si>
-  <si>
-    <t>FR_04020</t>
+    <t>Side support accelerator pedal and its symetric part</t>
+  </si>
+  <si>
+    <t>Throttle pedal stop</t>
+  </si>
+  <si>
+    <t>Throttle pedal Axis Cable</t>
   </si>
 </sst>
 </file>
@@ -629,11 +617,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -817,10 +805,10 @@
         <v>26</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>19</v>
@@ -831,19 +819,19 @@
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H11" s="5"/>
     </row>
@@ -870,7 +858,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>26</v>
@@ -980,7 +968,7 @@
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>26</v>
@@ -990,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H19" s="5"/>
     </row>
@@ -998,55 +986,19 @@
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4">
-        <v>2</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
